--- a/Project Diagrams.xlsx
+++ b/Project Diagrams.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mat\Desktop\COMP3005\Project\Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F4EDC9-C84E-4AEB-AD23-7BE715D8BCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284F39A-8DCB-4B6A-BABC-75FAB0A4FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{A5D4FE17-91BC-4AD6-B9B1-79DDE3B7AD06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A5D4FE17-91BC-4AD6-B9B1-79DDE3B7AD06}"/>
   </bookViews>
   <sheets>
     <sheet name="ER model" sheetId="1" r:id="rId1"/>
     <sheet name="Relational Database Schema" sheetId="2" r:id="rId2"/>
-    <sheet name="Mapping Table" sheetId="3" r:id="rId3"/>
+    <sheet name="Requirements" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t>email</t>
   </si>
@@ -55,27 +55,10 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>Assumption</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
-    <t>Representation in ER Model</t>
-  </si>
-  <si>
-    <t>Mapping Table</t>
-  </si>
-  <si>
     <t>This system will serve as a comprehensive platform catering to the diverse needs of club members, trainers, and administrative staff.</t>
-  </si>
-  <si>
-    <t>- Entity for Members
-- Entity for Trainers
-- Entity for Administrative Staff</t>
-  </si>
-  <si>
-    <t>- A different entity for each type of users since they all require different information and needs.</t>
   </si>
   <si>
     <t>They should have access to a personalized dashboard that tracks exercise routines, fitness achievements, and health statistics. Members can schedule, reschedule, or cancel personal training sessions with certified trainers.</t>
@@ -114,28 +97,10 @@
     <t>Members should be able to input health metrics.</t>
   </si>
   <si>
-    <t>- fitness goals are based on the weight that the member wants to reach within specified timeframe.</t>
-  </si>
-  <si>
     <t>Members should be able to establish personal fitness goals (you can determine suitable fitness goals such as weight and time, and members will set the values).</t>
   </si>
   <si>
     <t>Members should be able to register and manage their profiles.</t>
-  </si>
-  <si>
-    <t>- member's attributes (health statistics (height, weight).</t>
-  </si>
-  <si>
-    <t>'- member's attributes (fitness goals (weight goal, deadline))</t>
-  </si>
-  <si>
-    <t>- member's attributes (Membership ID, name (first name, last name), date of birth, gender, address (province, city, street name, address number, postal code), phone number, email, joined date, payment information (credit card number, expiration date, cvv), account balance, membership expiration date.</t>
-  </si>
-  <si>
-    <t>- Registration will require information from the new member (such as basic personal information to identity and contact the member). Some information will be automatically generated (membership id, joined date, membership expiration date).</t>
-  </si>
-  <si>
-    <t>'- Registration will require health related information from the new member.</t>
   </si>
   <si>
     <t>Equipment</t>
@@ -326,6 +291,9 @@
   <si>
     <t>Member_Class</t>
   </si>
+  <si>
+    <t>Requirements</t>
+  </si>
 </sst>
 </file>
 
@@ -482,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,25 +470,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,10 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5288,16 +5244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5312,8 +5268,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2552700" y="8439150"/>
-          <a:ext cx="3724275" cy="571500"/>
+          <a:off x="3162300" y="12620625"/>
+          <a:ext cx="3095625" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5344,8 +5300,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -5353,7 +5309,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5368,8 +5324,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2571750" y="11858625"/>
-          <a:ext cx="6191250" cy="571500"/>
+          <a:off x="3162300" y="11858625"/>
+          <a:ext cx="5600700" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5401,15 +5357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5424,8 +5380,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2533650" y="9305925"/>
-          <a:ext cx="7439025" cy="2276475"/>
+          <a:off x="3019425" y="9286875"/>
+          <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5457,15 +5413,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5480,8 +5436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2609850" y="904875"/>
-          <a:ext cx="8591550" cy="10677525"/>
+          <a:off x="2105025" y="895350"/>
+          <a:ext cx="0" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5514,12 +5470,12 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
@@ -5536,8 +5492,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2562225" y="2628900"/>
-          <a:ext cx="4895850" cy="552450"/>
+          <a:off x="2562225" y="2924175"/>
+          <a:ext cx="0" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5569,15 +5525,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5591,9 +5547,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2581275" y="1771650"/>
-          <a:ext cx="4924425" cy="1419225"/>
+        <a:xfrm>
+          <a:off x="2076450" y="2924175"/>
+          <a:ext cx="0" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5625,15 +5581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5647,9 +5603,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2657475" y="923925"/>
-          <a:ext cx="6086475" cy="552450"/>
+        <a:xfrm flipV="1">
+          <a:off x="2619375" y="904874"/>
+          <a:ext cx="0" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5681,15 +5637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5703,9 +5659,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2590800" y="914400"/>
-          <a:ext cx="6115050" cy="1419225"/>
+        <a:xfrm flipV="1">
+          <a:off x="2876550" y="904875"/>
+          <a:ext cx="0" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5737,15 +5693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5759,9 +5715,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2543175" y="3486150"/>
-          <a:ext cx="4933950" cy="2095500"/>
+        <a:xfrm flipV="1">
+          <a:off x="2647950" y="3476624"/>
+          <a:ext cx="0" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5793,15 +5749,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>244601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5816,8 +5772,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2562225" y="3486150"/>
-          <a:ext cx="3743325" cy="561975"/>
+          <a:off x="2514600" y="3476624"/>
+          <a:ext cx="0" cy="530352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5849,15 +5805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5872,8 +5828,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2562225" y="5191125"/>
-          <a:ext cx="9525" cy="590550"/>
+          <a:off x="2409825" y="5172075"/>
+          <a:ext cx="0" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5905,15 +5861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5928,8 +5884,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2581275" y="6057900"/>
-          <a:ext cx="1228725" cy="571500"/>
+          <a:off x="2971800" y="6048375"/>
+          <a:ext cx="371475" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5961,15 +5917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5983,9 +5939,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2038350" y="4343400"/>
-          <a:ext cx="504825" cy="6372225"/>
+        <a:xfrm flipV="1">
+          <a:off x="2124075" y="3457575"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6017,15 +5973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6040,8 +5996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2543175" y="8429625"/>
-          <a:ext cx="1238250" cy="571500"/>
+          <a:off x="2952750" y="11001375"/>
+          <a:ext cx="457200" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6075,13 +6031,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6096,8 +6052,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="8448675"/>
-          <a:ext cx="9525" cy="552450"/>
+          <a:off x="2562225" y="8439150"/>
+          <a:ext cx="0" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6129,15 +6085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6151,9 +6107,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2552700" y="3486150"/>
-          <a:ext cx="1247775" cy="3800475"/>
+        <a:xfrm flipV="1">
+          <a:off x="2838450" y="3476625"/>
+          <a:ext cx="0" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6185,15 +6141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6208,8 +6164,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2524125" y="8429625"/>
-          <a:ext cx="28575" cy="581025"/>
+          <a:off x="2276475" y="9286875"/>
+          <a:ext cx="0" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6241,13 +6197,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
@@ -6263,9 +6219,835 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2305050" y="3476625"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347C60FD-AD6A-5251-DC39-37F133C20779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="9658350"/>
+          <a:ext cx="7000875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6621F0FE-EBD7-4751-8424-E28C8ED9589E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="9667875"/>
+          <a:ext cx="0" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CACAAA1-FFFF-4329-8AAD-349FCAEE9E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="10467975"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A9053-1FA6-4BB0-A154-9F31882327CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="10458450"/>
+          <a:ext cx="1590675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC47E89-93C4-4D1F-931B-6BC9ED3A02D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="523875" y="3829050"/>
+          <a:ext cx="0" cy="6629400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FA5199-1214-4F43-977E-6514A060A446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="523875" y="3819525"/>
+          <a:ext cx="1600200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8FD804-4688-4E04-A1FD-AE446366209C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="11068050"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F286F643-CD19-4FD8-8A68-E76EBC470662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="11068050"/>
+          <a:ext cx="11315700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589DECCC-1C6A-4604-B4A7-B798FCCD3E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="276225" y="1257300"/>
+          <a:ext cx="0" cy="9810750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1580BDB-57E9-4AF9-8FB4-E8CCE2428FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="1257300"/>
+          <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B452854-5F0F-4B38-9EF0-303F424FE2DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="1362075"/>
+          <a:ext cx="5953125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE7F61D-0524-4EF6-8D9D-DEEF1F1234CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="1362075"/>
+          <a:ext cx="0" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD18D56-56B6-4C07-8ADC-666AF82038F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="1181100"/>
+          <a:ext cx="6877050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F71433-29D3-476A-8F7C-EFA14AB165AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1181100"/>
+          <a:ext cx="0" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4368A8-AC3A-4598-B791-8B753CE52D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2571750" y="3524250"/>
-          <a:ext cx="9525" cy="514350"/>
+          <a:off x="9344025" y="2514600"/>
+          <a:ext cx="411480" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6275,6 +7057,778 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Straight Connector 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBAA9B1-C8FE-4208-8B88-4DD4CDA1AA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1743075" y="2914650"/>
+          <a:ext cx="333375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB5578F-745D-45CB-A25F-1B9456BEF90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1743075" y="2038350"/>
+          <a:ext cx="0" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2D65EC-7014-4E92-B20B-017CBB6A7D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="2038350"/>
+          <a:ext cx="5734050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EA6675-F7C9-43DE-B6EB-B85417368414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7477125" y="1762125"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37220BB2-4804-4E02-A2D1-3B54EB26F417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2562225" y="2905125"/>
+          <a:ext cx="4886325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Arrow Connector 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD5E223-9753-4AE5-8F73-3160D92D73D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7448550" y="2628900"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E423347-380F-413B-8813-F92942F344A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="4010025"/>
+          <a:ext cx="3238500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD23E8B-10A7-4982-8337-9F12E2BE7AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="4010025"/>
+          <a:ext cx="0" cy="896112"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Connector 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1152BE-A60C-4D45-B272-6D1270F394DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2647950" y="3933825"/>
+          <a:ext cx="4648200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781971E9-B12D-4310-A693-4E37F9B484C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7277100" y="3943349"/>
+          <a:ext cx="0" cy="3346704"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="Straight Connector 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFF495F-F360-49BA-8B63-FE4FFD1DC9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2838450" y="3829050"/>
+          <a:ext cx="5819775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1E5BA7-C07F-45F9-9CD5-659A7EF7BFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8658225" y="3829050"/>
+          <a:ext cx="0" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Connector 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B4256C-2CC7-48CB-8A4B-AB973060E21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3829050" y="7800975"/>
+          <a:ext cx="4829175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Connector 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64043770-E380-4DB8-AF8D-4F3C0F20F511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="7800975"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -6666,349 +8220,349 @@
   </sheetPr>
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>35</v>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>81</v>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>53</v>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>54</v>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>65</v>
+      <c r="B8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>85</v>
+      <c r="J10" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>55</v>
+      <c r="J11" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>67</v>
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>37</v>
+      <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>56</v>
+      <c r="B15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>57</v>
+      <c r="B16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>58</v>
+      <c r="F17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="19" t="s">
-        <v>73</v>
+      <c r="F18" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="20" t="s">
-        <v>78</v>
+      <c r="F19" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="16" t="s">
-        <v>33</v>
+      <c r="I22" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="21" t="s">
-        <v>76</v>
+      <c r="I23" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="19" t="s">
-        <v>44</v>
+      <c r="I24" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="19" t="s">
-        <v>45</v>
+      <c r="I25" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="20" t="s">
-        <v>46</v>
+      <c r="I26" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>38</v>
+      <c r="B27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>39</v>
+      <c r="B28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>40</v>
+      <c r="B29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>53</v>
+      <c r="B30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>34</v>
+      <c r="B31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>47</v>
+      <c r="B32" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>48</v>
+      <c r="I33" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="19" t="s">
-        <v>45</v>
+      <c r="I34" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>49</v>
+      <c r="F35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="19" t="s">
-        <v>68</v>
+      <c r="F36" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="19" t="s">
-        <v>69</v>
+      <c r="F37" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="20" t="s">
-        <v>70</v>
+      <c r="F38" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="16" t="s">
-        <v>28</v>
+      <c r="E43" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="21" t="s">
-        <v>62</v>
+      <c r="E44" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>63</v>
+      <c r="B45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>64</v>
+      <c r="B46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7040,27 +8594,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -7069,19 +8623,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,63 +8650,63 @@
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>1</v>
@@ -7167,132 +8721,132 @@
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>1</v>
@@ -7307,99 +8861,99 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7407,7 +8961,7 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7417,134 +8971,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
+    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="13" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Project Diagrams.xlsx
+++ b/Project Diagrams.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mat\Desktop\COMP3005\Project\Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284F39A-8DCB-4B6A-BABC-75FAB0A4FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81B4DCC-C274-44EB-BEAD-5DE44BDE28C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A5D4FE17-91BC-4AD6-B9B1-79DDE3B7AD06}"/>
   </bookViews>
   <sheets>
-    <sheet name="ER model" sheetId="1" r:id="rId1"/>
+    <sheet name="ER Model" sheetId="1" r:id="rId1"/>
     <sheet name="Relational Database Schema" sheetId="2" r:id="rId2"/>
     <sheet name="Requirements" sheetId="3" r:id="rId3"/>
   </sheets>
